--- a/assets/data/27-7-2017WIP(updatedDatesNdatefix)ver2.xlsx
+++ b/assets/data/27-7-2017WIP(updatedDatesNdatefix)ver2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sereb\OneDrive\GitHub\SpaceBlockerV1.0\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc29a14610f22cc5/GitHub/SpaceBlockerV1.0/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7800" tabRatio="864" firstSheet="17" activeTab="36"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="864" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -4766,7 +4766,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11384,8 +11384,8 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11959,8 +11959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
